--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2245909.834774421</v>
+        <v>2309157.546843729</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5448107.677424002</v>
+        <v>5507037.06172266</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>419.6101127347898</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -725,7 +725,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>188.2030277885076</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
         <v>128.8768572327044</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.01895132827764</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>140.5191363524912</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>332.4291174559665</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>184.3754567806772</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1060,7 +1060,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1069,10 +1069,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>29.68613922827262</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>270.5323008483388</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>203.4567449591752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>30.1577499769271</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1291,10 +1291,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>140.674870587561</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1306,7 +1306,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>122.9742767430572</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>274.8577999327491</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800271</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>161.6379250432762</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>122.159103983299</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>154.0254420454387</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1661,7 +1661,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>53.06991172717044</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1859,7 +1859,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>39.47142524085218</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907072</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2062,7 +2062,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>20.73696989209202</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2096,7 +2096,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>108.1177056177444</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2293,7 +2293,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>193.86594382537</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112312</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
         <v>0.4126214791313976</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2524,7 +2524,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2539,10 +2539,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>184.2690991742396</v>
       </c>
       <c r="Y25" t="n">
-        <v>134.2252585165366</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2612,7 +2612,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655126</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -2716,7 +2716,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>159.0706943503423</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -2761,16 +2761,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>54.66258501924847</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2959,7 +2959,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>172.4933240080321</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -2968,7 +2968,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3013,7 +3013,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>131.5141848153389</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3047,7 +3047,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3205,7 +3205,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,10 +3238,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>27.18442331492921</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3250,7 +3250,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>219.2875345484103</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3427,7 +3427,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>3.423392126084988</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3487,7 +3487,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571955</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3673,10 +3673,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>46.2253027104002</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3724,7 +3724,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>179.5076719485545</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>332.4205716602767</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3794,7 +3794,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3901,7 +3901,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3910,7 +3910,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -3949,10 +3949,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>184.5029040082436</v>
+        <v>131.9969996527506</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3983,7 +3983,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>161.4258646586646</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4147,13 +4147,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225724</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4195,7 +4195,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>67.37282263167496</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>443.0234284442651</v>
+        <v>949.4529008264926</v>
       </c>
       <c r="C2" t="n">
-        <v>408.9213596680925</v>
+        <v>915.3508320503199</v>
       </c>
       <c r="D2" t="n">
-        <v>377.0519788829411</v>
+        <v>486.7691577875882</v>
       </c>
       <c r="E2" t="n">
-        <v>347.3176380816403</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4328,52 +4328,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>1075.344177331261</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W2" t="n">
-        <v>1074.529126782698</v>
+        <v>1392.64927858873</v>
       </c>
       <c r="X2" t="n">
-        <v>1059.427067402413</v>
+        <v>1377.547219208445</v>
       </c>
       <c r="Y2" t="n">
-        <v>869.3229989291729</v>
+        <v>1373.301499548503</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,34 +4395,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3167747026667</v>
+        <v>777.3658326657497</v>
       </c>
       <c r="C4" t="n">
-        <v>203.7016723508711</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="D4" t="n">
-        <v>203.7016723508711</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4489,16 +4489,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>89.90148899448771</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>509.954387939391</v>
+        <v>1146.964903885608</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1146.964903885608</v>
       </c>
       <c r="O4" t="n">
         <v>1349.676536110076</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1259.509060631519</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V4" t="n">
-        <v>972.5535525019498</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="W4" t="n">
-        <v>700.5271480882413</v>
+        <v>1146.724024919814</v>
       </c>
       <c r="X4" t="n">
-        <v>455.1353934216538</v>
+        <v>1004.785503351641</v>
       </c>
       <c r="Y4" t="n">
-        <v>455.1353934216538</v>
+        <v>777.3658326657497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>978.4627999561583</v>
       </c>
       <c r="C5" t="n">
-        <v>822.1393557439874</v>
+        <v>944.3607311799856</v>
       </c>
       <c r="D5" t="n">
-        <v>393.5576814812557</v>
+        <v>508.45094635443</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>74.67620151272519</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233699</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233699</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233699</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>674.5331706342547</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1298.633954679033</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762198</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720793</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657687</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2217.900228530725</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1958.677925847742</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1596.060975781568</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1595.245925233006</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1409.008090101009</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1404.762370441066</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326453</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>76.49605974993459</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>401.0543847161469</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>714.6817019292769</v>
+        <v>1019.57437211221</v>
       </c>
       <c r="C7" t="n">
-        <v>542.1199904125018</v>
+        <v>847.0126605954352</v>
       </c>
       <c r="D7" t="n">
-        <v>376.2419976140245</v>
+        <v>681.134667796958</v>
       </c>
       <c r="E7" t="n">
-        <v>376.2419976140245</v>
+        <v>511.3766640476952</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>334.6696100094514</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>169.0783350352791</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.0120717541668</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>266.2978593068756</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>684.5077410748366</v>
       </c>
       <c r="M7" t="n">
-        <v>453.9965675465116</v>
+        <v>1143.99160825575</v>
       </c>
       <c r="N7" t="n">
-        <v>874.0494664914149</v>
+        <v>1586.250411413394</v>
       </c>
       <c r="O7" t="n">
-        <v>1293.718715717196</v>
+        <v>2005.919660639176</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.426554609518</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.186328726955</v>
       </c>
       <c r="V7" t="n">
-        <v>1423.91847972856</v>
+        <v>1956.230820597385</v>
       </c>
       <c r="W7" t="n">
-        <v>1151.892075314852</v>
+        <v>1684.204416183677</v>
       </c>
       <c r="X7" t="n">
-        <v>906.5003206482641</v>
+        <v>1438.812661517089</v>
       </c>
       <c r="Y7" t="n">
-        <v>906.5003206482641</v>
+        <v>1211.392990831197</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>33.94366860160834</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1408.019692669128</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1408.019692669128</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="W8" t="n">
-        <v>1003.164238080161</v>
+        <v>2638.783402168797</v>
       </c>
       <c r="X8" t="n">
-        <v>584.0217746594717</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>688.0958302396116</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>688.0958302396116</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>546.0000013632873</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>376.2419976140245</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>199.5349435757807</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>872.2064493144727</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1291.875698540254</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1675.765608785789</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U10" t="n">
-        <v>1397.332608038895</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>1397.332608038895</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>1125.306203625186</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>879.9144489585988</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>879.9144489585988</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2511.879170851552</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2073.736698034975</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1637.82691320942</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.052168367715</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>776.1847387769226</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>374.7869074001865</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>97.1527660539752</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L11" t="n">
-        <v>96.7359766811152</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M11" t="n">
-        <v>1253.783811891666</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N11" t="n">
-        <v>2379.514795328113</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3359.694461898419</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4188.004336731816</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302704</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.79883405576</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239597</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112636</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4533.079733112636</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4170.462783046462</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3765.607328457495</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3346.464865036806</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2938.17874133646</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>96.7359766811152</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>96.7359766811152</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>96.7359766811152</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>96.7359766811152</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>96.7359766811152</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>96.7359766811152</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3408549543107</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1175.794137292996</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C13" t="n">
-        <v>1003.232425776221</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>837.3544329777442</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>667.5964292284815</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>490.8893751902377</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160653</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064399</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289287</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.736396587283</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2286.856950165738</v>
+        <v>2396.408450114731</v>
       </c>
       <c r="U13" t="n">
-        <v>2008.423949418844</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V13" t="n">
-        <v>2008.423949418844</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W13" t="n">
-        <v>1736.397545005136</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X13" t="n">
-        <v>1491.005790338548</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y13" t="n">
-        <v>1367.612756011983</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>386.282920610759</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>97.1527660539752</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>96.7359766811152</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L14" t="n">
-        <v>96.7359766811152</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M14" t="n">
-        <v>1253.783811891666</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
-        <v>2379.514795328113</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3359.694461898419</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4188.004336731816</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4734.50312269041</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.79883405576</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239597</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112636</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429653</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363479</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774513</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353823</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653477</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>96.7359766811152</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>96.7359766811152</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>96.7359766811152</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>96.7359766811152</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>96.7359766811152</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>96.7359766811152</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3408549543107</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1056.838397217808</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776221</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777442</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284815</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289287</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2650.81040391895</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.423949418844</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.468441289274</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W16" t="n">
-        <v>1721.468441289274</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X16" t="n">
-        <v>1476.076686622687</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1248.657015936795</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.222555802379</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985803</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160247</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318542</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>789.5281237277504</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510142</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423044</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137045</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>98.58334842137045</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>98.58334842137045</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>122.2462103061711</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M17" t="n">
-        <v>1279.294045516722</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>2405.025028953169</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523475</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356871</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315466</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068522</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252359</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4805.645420746447</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4546.423118063463</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4183.80616799729</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3778.950713408323</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3359.808249987634</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.522126287287</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126632</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493055</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958588</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228125</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389741</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.319000605158</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137045</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>98.58334842137045</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>98.58334842137045</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>98.58334842137045</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>98.58334842137045</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>98.58334842137045</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>98.58334842137045</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>284.188226694566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173764</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.823109900179</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348562</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679164</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679132</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132056</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924263</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1037.739334723626</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>865.1776232068513</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>699.299630408374</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>529.5416266591112</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>352.8345726208675</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>187.2432976466951</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466951</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137045</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860603</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571959</v>
+        <v>463.5989800066042</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251569</v>
+        <v>881.8088617745652</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955478</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489496</v>
+        <v>2203.220781338904</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459838</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.24295832417</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2693.825137029542</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2534.583768327539</v>
+        <v>2559.679081471575</v>
       </c>
       <c r="T19" t="n">
-        <v>2288.704321905994</v>
+        <v>2313.79963505003</v>
       </c>
       <c r="U19" t="n">
-        <v>2010.271321159099</v>
+        <v>2035.366634303135</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.315813029529</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1702.369378795093</v>
+        <v>1476.384721759857</v>
       </c>
       <c r="X19" t="n">
-        <v>1456.977624128505</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1229.557953442614</v>
+        <v>1003.573296407378</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5789,13 +5789,13 @@
         <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5911,7 +5911,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
         <v>881.8088617745661</v>
@@ -5920,40 +5920,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.55153211312</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338902</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309244</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471573</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050028</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2117.975449367836</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954128</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601649</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.900047651805</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835229</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009673</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167968</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771761</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004395</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
-        <v>102.2608402707799</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707799</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707799</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>306.1208027766452</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.168637987196</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423643</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993949</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.389162827345</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.88794878594</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538997</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722834</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595872</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912889</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846715</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257749</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.48574183706</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136713</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6042,64 +6042,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620727</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>501.976124098715</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>406.8858352452683</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>312.765420572222</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883836</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545675</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707799</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707799</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707799</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707799</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707799</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707799</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707799</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439754</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023174</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749589</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197972</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.866520528574</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528542</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
         <v>1196.412455590541</v>
@@ -6108,10 +6108,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626151</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418359</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1041.416826573036</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C25" t="n">
-        <v>868.8551150562608</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D25" t="n">
-        <v>702.9771222577835</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E25" t="n">
-        <v>533.2191185085208</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F25" t="n">
-        <v>356.512064470277</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961046</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961046</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707799</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354698</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066054</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745665</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
         <v>1783.551532113124</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878952</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878952</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.623182457407</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2173.190181710512</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1886.234673580942</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1614.208269167234</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1368.816514500646</v>
+        <v>1268.836497258927</v>
       </c>
       <c r="Y25" t="n">
-        <v>1233.235445292023</v>
+        <v>1041.416826573035</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6230,46 +6230,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1036.216302815308</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>863.6545912985329</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>702.9771222577831</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>533.2191185085204</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
         <v>190.9207894961043</v>
@@ -6409,25 +6409,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2642.287896536276</v>
       </c>
       <c r="T28" t="n">
-        <v>2538.261260176947</v>
+        <v>2396.408450114731</v>
       </c>
       <c r="U28" t="n">
-        <v>2259.828259430052</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V28" t="n">
-        <v>1972.872751300483</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1700.846346886774</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1455.454592220187</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1228.034921534295</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1090.187678435286</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>917.6259669185115</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>751.7479741200342</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>581.9899703707715</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V31" t="n">
-        <v>2026.844126920461</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W31" t="n">
-        <v>1754.817722506753</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X31" t="n">
-        <v>1509.425967840165</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1282.006297154274</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6704,46 +6704,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1008.757289365886</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674085</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181458</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6859,10 +6859,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
         <v>1341.292728955479</v>
@@ -6883,25 +6883,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176948</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2510.802246727525</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2232.36924598063</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V34" t="n">
-        <v>1945.41373785106</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W34" t="n">
-        <v>1673.387333437352</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X34" t="n">
-        <v>1427.995578770764</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y34" t="n">
-        <v>1200.575908084873</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6962,25 +6962,25 @@
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937638</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769889</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>617.7751448769889</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>448.0171411277261</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>271.3100870894822</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>105.7188121153099</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7093,13 +7093,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
         <v>1341.292728955479</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.155475112751</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7163,40 +7163,40 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>306.1208027766299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>306.1208027766299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7248,25 +7248,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>875.8255515988633</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2650.81040391895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2404.930957497405</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2527.052675911534</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.910203094957</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.000418269401</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.225673427696</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>791.3582438369042</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>389.9604124601681</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033844</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305244</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>100.4134685305244</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>100.4134685305244</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>213.7522157638664</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M41" t="n">
-        <v>1370.800050974417</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410864</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981171</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814567</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773161</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526218</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710054</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583093</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.73202290011</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4095.115072833936</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3690.25961824497</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3271.117154824281</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2862.831031123934</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218172</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584595</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050127</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319664</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.534210448128</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143119</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305244</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>100.4134685305244</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>100.4134685305244</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>100.4134685305244</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>100.4134685305244</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>100.4134685305244</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>100.4134685305244</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>286.0183468037198</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282918</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914994</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788318</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850286</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.24232958348</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223596</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015803</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>848.0023613697562</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>675.4406498529811</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>675.4406498529811</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>505.6826461037183</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>328.9755920654745</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654745</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>189.073417755849</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305244</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952142</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663498</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343108</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215224</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372869</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.37340959865</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568992</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138696</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S43" t="n">
-        <v>2536.413888436692</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T43" t="n">
-        <v>2350.047318731396</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="U43" t="n">
-        <v>2071.614317984501</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V43" t="n">
-        <v>1784.658809854931</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W43" t="n">
-        <v>1512.632405441223</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X43" t="n">
-        <v>1267.240650774635</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y43" t="n">
-        <v>1039.820980088743</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2252.656868168566</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1814.514395351989</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1378.604610526433</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>386.282920610759</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397516</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>96.73597668111516</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M44" t="n">
-        <v>1253.783811891666</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N44" t="n">
-        <v>2379.514795328113</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3359.694461898419</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4188.004336731816</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.644769302701</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055758</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239595</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112633</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4273.85743042965</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.240480363476</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3506.38502577451</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3087.242562353821</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2678.956438653474</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>96.73597668111516</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>96.73597668111516</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>96.73597668111516</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>96.73597668111516</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>96.73597668111516</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>96.73597668111516</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3408549543107</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>947.2320137580463</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C46" t="n">
-        <v>774.6703022412712</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D46" t="n">
-        <v>608.792309442794</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E46" t="n">
-        <v>439.0343056935312</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F46" t="n">
-        <v>262.3272516552875</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G46" t="n">
-        <v>96.73597668111516</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>96.73597668111516</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2695.15641754123</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2449.276971119686</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2170.843970372791</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1883.888462243221</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1611.862057829513</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X46" t="n">
-        <v>1366.470303162925</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y46" t="n">
-        <v>1139.050632477033</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,28 +8052,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8137,19 +8137,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>204.7592244691589</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8222,19 +8222,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>512.4570950335005</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,13 +8289,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>30.91440664742026</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,25 +8371,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>130.5917045986957</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,10 +8526,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,25 +8608,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>239.5100572483138</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M11" t="n">
         <v>1168.735187081365</v>
@@ -8708,7 +8708,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>484.4852854251403</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>103.329001379142</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,10 +9000,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>23.90188069171788</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463286</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9890,13 +9890,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>114.4835830639819</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11315,7 +11315,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>484.4852854251367</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>11.3810530784668</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>81.78272691405309</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>102.9863699957338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>268.01113273462</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>117.7661826744369</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>90.22000922290086</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>178.3951296148396</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>139.5921776627265</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>248.5691704774794</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>81.78272691405284</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>81.78272691405573</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>58.66873794568207</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.92021546249617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>5.148518520150276</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,16 +24649,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2.446659489829216</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>111.4236523045828</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,10 +25126,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>216.2362286424001</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>23.65030257151136</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>135.0797604404442</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25561,10 +25561,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>111.4236523045831</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>63.43016517136715</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>89.61600311978204</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25837,10 +25837,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>58.91774794908568</v>
+        <v>111.4236523045787</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>268.0111327346231</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>201.9333177378964</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>454971.5081745088</v>
+        <v>474171.825723617</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>454971.5081745088</v>
+        <v>474171.825723617</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>461391.59863801</v>
+        <v>474171.825723617</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>474171.8257236169</v>
+        <v>474171.825723617</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236171</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236171</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>474171.8257236171</v>
+        <v>474171.825723617</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>467751.7352601158</v>
+        <v>474171.8257236172</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>454971.5081745086</v>
+        <v>474171.8257236169</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>455725.2219068472</v>
+        <v>455725.2219068473</v>
       </c>
       <c r="C2" t="n">
         <v>455725.2219068473</v>
       </c>
       <c r="D2" t="n">
-        <v>455725.2219068473</v>
+        <v>455725.2219068474</v>
       </c>
       <c r="E2" t="n">
-        <v>429695.3132759249</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="F2" t="n">
-        <v>429695.3132759249</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="G2" t="n">
-        <v>435758.7320470094</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="H2" t="n">
-        <v>447828.9465167493</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="I2" t="n">
+        <v>447828.9465167495</v>
+      </c>
+      <c r="J2" t="n">
         <v>447828.9465167496</v>
-      </c>
-      <c r="J2" t="n">
-        <v>447828.9465167494</v>
       </c>
       <c r="K2" t="n">
         <v>447828.9465167496</v>
       </c>
       <c r="L2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="M2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="N2" t="n">
-        <v>447828.9465167493</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="O2" t="n">
-        <v>441765.5277456649</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="P2" t="n">
-        <v>429695.3132759248</v>
+        <v>447828.9465167495</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501577</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998315</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220375</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042848318</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996552</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.027878397508175e-09</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449892</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>2.195332038762241e-11</v>
+        <v>53045.8546387722</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622623</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830678</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,34 +26418,34 @@
         <v>169168.0932697598</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>121997.5637970942</v>
       </c>
       <c r="D4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>773.6821211687735</v>
+        <v>806.3323907825372</v>
       </c>
       <c r="F4" t="n">
-        <v>773.6821211687734</v>
+        <v>806.3323907825373</v>
       </c>
       <c r="G4" t="n">
-        <v>784.5995283440636</v>
+        <v>806.3323907825373</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907825582</v>
+        <v>806.3323907825506</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907819088</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
-        <v>806.3323907825613</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>806.33239078255</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
         <v>806.3323907826023</v>
@@ -26454,10 +26454,10 @@
         <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>795.4149836073119</v>
+        <v>806.3323907826025</v>
       </c>
       <c r="P4" t="n">
-        <v>773.6821211687732</v>
+        <v>806.3323907826023</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.2138080025</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764755</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764755</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024154</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579275</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.2360831985</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84941.03984015516</v>
+        <v>84941.03984015522</v>
       </c>
       <c r="C6" t="n">
-        <v>227132.3404998652</v>
+        <v>195183.6764067349</v>
       </c>
       <c r="D6" t="n">
-        <v>227132.3404998652</v>
+        <v>256480.6955768559</v>
       </c>
       <c r="E6" t="n">
-        <v>121047.2668550711</v>
+        <v>186926.0419597419</v>
       </c>
       <c r="F6" t="n">
-        <v>355402.2888771086</v>
+        <v>369281.1511807918</v>
       </c>
       <c r="G6" t="n">
-        <v>353721.5766755755</v>
+        <v>369281.1511807918</v>
       </c>
       <c r="H6" t="n">
-        <v>356901.6205402088</v>
+        <v>369281.1511807918</v>
       </c>
       <c r="I6" t="n">
-        <v>369304.3755201739</v>
+        <v>369281.1511807917</v>
       </c>
       <c r="J6" t="n">
-        <v>258289.9101751852</v>
+        <v>258266.6858358017</v>
       </c>
       <c r="K6" t="n">
-        <v>369304.3755201744</v>
+        <v>316235.2965420196</v>
       </c>
       <c r="L6" t="n">
-        <v>369304.3755201744</v>
+        <v>359888.8494541692</v>
       </c>
       <c r="M6" t="n">
-        <v>173703.1962371065</v>
+        <v>217080.9802428041</v>
       </c>
       <c r="N6" t="n">
-        <v>369304.3755201742</v>
+        <v>369281.1511807917</v>
       </c>
       <c r="O6" t="n">
-        <v>364655.8766788591</v>
+        <v>369281.1511807917</v>
       </c>
       <c r="P6" t="n">
-        <v>355402.2888771085</v>
+        <v>369281.1511807917</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.744165048452801e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26790,25 +26790,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267131</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.260503384749</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="J4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631554</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.744165048452801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.108974848358</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939462</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938357</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319094</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811761477</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.865352482534945e-12</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201005</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.108974848358</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939462</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.744165048452801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.108974848358</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939462</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938357</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319094</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811761477</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2.42646204526892</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27445,7 +27445,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>216.0002346748355</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>111.8171430733297</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>102.4187007674304</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>97.00787993732121</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>230.5755820058052</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>108.8170133382566</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,10 +27828,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>13.55365219993507</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>53.17333469697812</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>328.8330305885846</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>23.5443422829315</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-4.063161046444251e-14</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-1.349622840050076e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-4.063161046444251e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-1.089551620811816e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28746,7 +28746,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-9.7515865114662e-13</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-3.215385309298231e-12</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-1.410516489475833e-11</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-8.096892806129865e-13</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,28 +34772,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>204.7592244691589</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34942,19 +34942,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>512.4570950335005</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,13 +35009,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>30.91440664742026</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>130.5917045986957</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,10 +35246,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>239.5100572483138</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35413,7 +35413,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M11" t="n">
         <v>1168.735187081365</v>
@@ -35428,7 +35428,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>484.4852854251403</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
         <v>170.862691669754</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,7 +35647,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>103.329001379142</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35811,7 +35811,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35887,7 +35887,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>23.90188069171788</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960957</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36282,13 +36282,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637955974</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512943</v>
@@ -36361,7 +36361,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463286</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36522,7 +36522,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -36598,7 +36598,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36610,13 +36610,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37072,7 +37072,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37227,19 +37227,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908054</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960968</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821539</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37783,7 +37783,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>114.4835830639819</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37944,19 +37944,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645625</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38035,10 +38035,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>484.4852854251367</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
